--- a/controller/src/main/resources/excel/quote.xlsx
+++ b/controller/src/main/resources/excel/quote.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\newparkcloud\controller\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wulala/WebstormProjects/newparkcloud/controller/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
     <sheet name="采购" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -96,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${xiaoshou}" var="t" varStatus="status"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>询报价编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,15 +166,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${caigou}" var="t" varStatus="status"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${t.xjdate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${t.quote}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${xiaoshou}" var="t"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${caigou}" var="t"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,34 +540,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="1" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="29.75" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="20.75" customWidth="1"/>
-    <col min="14" max="14" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -602,48 +606,48 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -662,31 +666,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -705,21 +709,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
